--- a/media/BillAnalysis/342125539-00001_Jan_15_2024_July_15_2023_July_15_2025.xlsx
+++ b/media/BillAnalysis/342125539-00001_Jan_15_2024_July_15_2023_July_15_2025.xlsx
@@ -17090,7 +17090,7 @@
     <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" style="1" customWidth="1"/>
     <col min="26" max="29" width="19.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="42.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="35.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.7109375" style="1" customWidth="1"/>
     <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="17.7109375" style="1" customWidth="1"/>
